--- a/planning-controler/src/main/resources/static/download/员工信息登记表.xlsx
+++ b/planning-controler/src/main/resources/static/download/员工信息登记表.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>备注1</t>
   </si>
@@ -90,23 +90,63 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>生日（格式：1991-01-01）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高学历</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系手机号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>现住地址</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>籍贯</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>生日（格式：1991-01-01）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>现住地址</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系手机号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高学历</t>
+    <t>部门</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工类别</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在职状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>试用期员工</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>实习期员工</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时员工</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式员工</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>在职</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>入职时间（格式：2020-01-01）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -114,10 +154,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>职位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>毕业时间（格式：2020-01-01）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -126,8 +162,44 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>紧急联系人手机号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>紧急联系人手机</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小学</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>初中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>本科</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>硕士研究生</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>博士研究生</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>中转</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>专科</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>高中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>高职</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -140,7 +212,7 @@
     <numFmt numFmtId="178" formatCode="yy/m/d"/>
     <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +260,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -276,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -323,6 +403,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -627,13 +708,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:AC1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -649,12 +730,16 @@
     <col min="21" max="21" width="9" style="1"/>
     <col min="22" max="22" width="24.5" style="1" customWidth="1"/>
     <col min="23" max="23" width="16.125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="9" style="1"/>
+    <col min="24" max="24" width="24.875" style="1" customWidth="1"/>
     <col min="25" max="25" width="16.875" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="1"/>
+    <col min="26" max="26" width="12.5" style="1" customWidth="1"/>
+    <col min="27" max="27" width="24.875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="9" style="1"/>
+    <col min="29" max="29" width="15.25" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -694,31 +779,43 @@
         <v>12</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="S1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="V1" s="13" t="s">
         <v>19</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Y1" s="15" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="Z1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC1" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -728,12 +825,30 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>N2</xm:sqref>
+          <xm:sqref>N2:N1520</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$B$1:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>V2:V1821</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$C$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>W2:W2272</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$D$1:$D$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>Y2:Y3281</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -743,20 +858,82 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>10</v>
       </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D5" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D6" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D7" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D8" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D9" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
